--- a/附件.xlsx
+++ b/附件.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\my college\数学建模\MM2020\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25BEACC-00ED-4A44-A63D-B7796ADDBE13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="18315" windowHeight="7845"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,8 +58,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -665,33 +659,36 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -706,15 +703,15 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -723,15 +720,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -773,7 +767,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -805,27 +799,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -857,24 +833,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1050,19 +1008,5693 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B710"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>30.03</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="B3">
+        <v>30.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>30.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="B5">
+        <v>31.44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>31.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2">
+        <v>21.5</v>
+      </c>
+      <c r="B7">
+        <v>32.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>33.049999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2">
+        <v>22.5</v>
+      </c>
+      <c r="B9">
+        <v>33.630000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>34.229999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2">
+        <v>23.5</v>
+      </c>
+      <c r="B11">
+        <v>34.85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>35.49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2">
+        <v>24.5</v>
+      </c>
+      <c r="B13">
+        <v>36.15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>36.840000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2">
+        <v>25.5</v>
+      </c>
+      <c r="B15">
+        <v>37.549999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>38.28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2">
+        <v>26.5</v>
+      </c>
+      <c r="B17">
+        <v>39.020000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>39.79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="B19">
+        <v>40.58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>41.39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2">
+        <v>28.5</v>
+      </c>
+      <c r="B21">
+        <v>42.23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2">
+        <v>29</v>
+      </c>
+      <c r="B22">
+        <v>43.08</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2">
+        <v>29.5</v>
+      </c>
+      <c r="B23">
+        <v>43.94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2">
+        <v>30</v>
+      </c>
+      <c r="B24">
+        <v>44.83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2">
+        <v>30.5</v>
+      </c>
+      <c r="B25">
+        <v>45.74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>46.66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2">
+        <v>31.5</v>
+      </c>
+      <c r="B27">
+        <v>47.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>48.55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2">
+        <v>32.5</v>
+      </c>
+      <c r="B29">
+        <v>49.51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>50.49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2">
+        <v>33.5</v>
+      </c>
+      <c r="B31">
+        <v>51.48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2">
+        <v>34</v>
+      </c>
+      <c r="B32">
+        <v>52.48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="B33">
+        <v>53.48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>54.49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2">
+        <v>35.5</v>
+      </c>
+      <c r="B35">
+        <v>55.51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>56.53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2">
+        <v>36.5</v>
+      </c>
+      <c r="B37">
+        <v>57.56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>58.59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2">
+        <v>37.5</v>
+      </c>
+      <c r="B39">
+        <v>59.61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>60.64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2">
+        <v>38.5</v>
+      </c>
+      <c r="B41">
+        <v>61.67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2">
+        <v>39</v>
+      </c>
+      <c r="B42">
+        <v>62.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2">
+        <v>39.5</v>
+      </c>
+      <c r="B43">
+        <v>63.73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2">
+        <v>40</v>
+      </c>
+      <c r="B44">
+        <v>64.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2">
+        <v>40.5</v>
+      </c>
+      <c r="B45">
+        <v>65.77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2">
+        <v>41</v>
+      </c>
+      <c r="B46">
+        <v>66.790000000000006</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2">
+        <v>41.5</v>
+      </c>
+      <c r="B47">
+        <v>67.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2">
+        <v>42</v>
+      </c>
+      <c r="B48">
+        <v>68.81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2">
+        <v>42.5</v>
+      </c>
+      <c r="B49">
+        <v>69.81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2">
+        <v>43</v>
+      </c>
+      <c r="B50">
+        <v>70.81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2">
+        <v>43.5</v>
+      </c>
+      <c r="B51">
+        <v>71.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2">
+        <v>44</v>
+      </c>
+      <c r="B52">
+        <v>72.790000000000006</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2">
+        <v>44.5</v>
+      </c>
+      <c r="B53">
+        <v>73.77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2">
+        <v>45</v>
+      </c>
+      <c r="B54">
+        <v>74.75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2">
+        <v>45.5</v>
+      </c>
+      <c r="B55">
+        <v>75.709999999999994</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2">
+        <v>46</v>
+      </c>
+      <c r="B56">
+        <v>76.67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2">
+        <v>46.5</v>
+      </c>
+      <c r="B57">
+        <v>77.63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2">
+        <v>47</v>
+      </c>
+      <c r="B58">
+        <v>78.569999999999993</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2">
+        <v>47.5</v>
+      </c>
+      <c r="B59">
+        <v>79.510000000000005</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2">
+        <v>48</v>
+      </c>
+      <c r="B60">
+        <v>80.44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2">
+        <v>48.5</v>
+      </c>
+      <c r="B61">
+        <v>81.37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2">
+        <v>49</v>
+      </c>
+      <c r="B62">
+        <v>82.28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2">
+        <v>49.5</v>
+      </c>
+      <c r="B63">
+        <v>83.19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2">
+        <v>50</v>
+      </c>
+      <c r="B64">
+        <v>84.09</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="2">
+        <v>50.5</v>
+      </c>
+      <c r="B65">
+        <v>84.99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="2">
+        <v>51</v>
+      </c>
+      <c r="B66">
+        <v>85.87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="2">
+        <v>51.5</v>
+      </c>
+      <c r="B67">
+        <v>86.75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2">
+        <v>52</v>
+      </c>
+      <c r="B68">
+        <v>87.62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2">
+        <v>52.5</v>
+      </c>
+      <c r="B69">
+        <v>88.48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="2">
+        <v>53</v>
+      </c>
+      <c r="B70">
+        <v>89.34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="2">
+        <v>53.5</v>
+      </c>
+      <c r="B71">
+        <v>90.18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="2">
+        <v>54</v>
+      </c>
+      <c r="B72">
+        <v>91.02</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="2">
+        <v>54.5</v>
+      </c>
+      <c r="B73">
+        <v>91.85</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="2">
+        <v>55</v>
+      </c>
+      <c r="B74">
+        <v>92.68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="2">
+        <v>55.5</v>
+      </c>
+      <c r="B75">
+        <v>93.49</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="2">
+        <v>56</v>
+      </c>
+      <c r="B76">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="2">
+        <v>56.5</v>
+      </c>
+      <c r="B77">
+        <v>95.1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="2">
+        <v>57</v>
+      </c>
+      <c r="B78">
+        <v>95.9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="2">
+        <v>57.5</v>
+      </c>
+      <c r="B79">
+        <v>96.68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="2">
+        <v>58</v>
+      </c>
+      <c r="B80">
+        <v>97.46</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="2">
+        <v>58.5</v>
+      </c>
+      <c r="B81">
+        <v>98.23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="2">
+        <v>59</v>
+      </c>
+      <c r="B82">
+        <v>98.99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="2">
+        <v>59.5</v>
+      </c>
+      <c r="B83">
+        <v>99.75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="2">
+        <v>60</v>
+      </c>
+      <c r="B84">
+        <v>100.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="2">
+        <v>60.5</v>
+      </c>
+      <c r="B85">
+        <v>101.24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="2">
+        <v>61</v>
+      </c>
+      <c r="B86">
+        <v>101.97</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="2">
+        <v>61.5</v>
+      </c>
+      <c r="B87">
+        <v>102.7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="2">
+        <v>62</v>
+      </c>
+      <c r="B88">
+        <v>103.42</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="2">
+        <v>62.5</v>
+      </c>
+      <c r="B89">
+        <v>104.13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="2">
+        <v>63</v>
+      </c>
+      <c r="B90">
+        <v>104.84</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="2">
+        <v>63.5</v>
+      </c>
+      <c r="B91">
+        <v>105.54</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="2">
+        <v>64</v>
+      </c>
+      <c r="B92">
+        <v>106.23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="2">
+        <v>64.5</v>
+      </c>
+      <c r="B93">
+        <v>106.91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="2">
+        <v>65</v>
+      </c>
+      <c r="B94">
+        <v>107.59</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="2">
+        <v>65.5</v>
+      </c>
+      <c r="B95">
+        <v>108.26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="2">
+        <v>66</v>
+      </c>
+      <c r="B96">
+        <v>108.93</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="2">
+        <v>66.5</v>
+      </c>
+      <c r="B97">
+        <v>109.59</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="2">
+        <v>67</v>
+      </c>
+      <c r="B98">
+        <v>110.24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="2">
+        <v>67.5</v>
+      </c>
+      <c r="B99">
+        <v>110.89</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="2">
+        <v>68</v>
+      </c>
+      <c r="B100">
+        <v>111.52</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="2">
+        <v>68.5</v>
+      </c>
+      <c r="B101">
+        <v>112.16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="2">
+        <v>69</v>
+      </c>
+      <c r="B102">
+        <v>112.79</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="2">
+        <v>69.5</v>
+      </c>
+      <c r="B103">
+        <v>113.41</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="2">
+        <v>70</v>
+      </c>
+      <c r="B104">
+        <v>114.02</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="2">
+        <v>70.5</v>
+      </c>
+      <c r="B105">
+        <v>114.63</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="2">
+        <v>71</v>
+      </c>
+      <c r="B106">
+        <v>115.23</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="2">
+        <v>71.5</v>
+      </c>
+      <c r="B107">
+        <v>115.83</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="2">
+        <v>72</v>
+      </c>
+      <c r="B108">
+        <v>116.42</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="2">
+        <v>72.5</v>
+      </c>
+      <c r="B109">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="2">
+        <v>73</v>
+      </c>
+      <c r="B110">
+        <v>117.58</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="2">
+        <v>73.5</v>
+      </c>
+      <c r="B111">
+        <v>118.15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="2">
+        <v>74</v>
+      </c>
+      <c r="B112">
+        <v>118.72</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="2">
+        <v>74.5</v>
+      </c>
+      <c r="B113">
+        <v>119.28</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="2">
+        <v>75</v>
+      </c>
+      <c r="B114">
+        <v>119.84</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="2">
+        <v>75.5</v>
+      </c>
+      <c r="B115">
+        <v>120.39</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="2">
+        <v>76</v>
+      </c>
+      <c r="B116">
+        <v>120.93</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="2">
+        <v>76.5</v>
+      </c>
+      <c r="B117">
+        <v>121.47</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="2">
+        <v>77</v>
+      </c>
+      <c r="B118">
+        <v>122.01</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="2">
+        <v>77.5</v>
+      </c>
+      <c r="B119">
+        <v>122.54</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="2">
+        <v>78</v>
+      </c>
+      <c r="B120">
+        <v>123.06</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="2">
+        <v>78.5</v>
+      </c>
+      <c r="B121">
+        <v>123.58</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="2">
+        <v>79</v>
+      </c>
+      <c r="B122">
+        <v>124.09</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="2">
+        <v>79.5</v>
+      </c>
+      <c r="B123">
+        <v>124.6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="2">
+        <v>80</v>
+      </c>
+      <c r="B124">
+        <v>125.1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="2">
+        <v>80.5</v>
+      </c>
+      <c r="B125">
+        <v>125.6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="2">
+        <v>81</v>
+      </c>
+      <c r="B126">
+        <v>126.09</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="2">
+        <v>81.5</v>
+      </c>
+      <c r="B127">
+        <v>126.58</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="2">
+        <v>82</v>
+      </c>
+      <c r="B128">
+        <v>127.06</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="2">
+        <v>82.5</v>
+      </c>
+      <c r="B129">
+        <v>127.54</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="2">
+        <v>83</v>
+      </c>
+      <c r="B130">
+        <v>128.02000000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="2">
+        <v>83.5</v>
+      </c>
+      <c r="B131">
+        <v>128.49</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="2">
+        <v>84</v>
+      </c>
+      <c r="B132">
+        <v>128.94999999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="2">
+        <v>84.5</v>
+      </c>
+      <c r="B133">
+        <v>129.41</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="2">
+        <v>85</v>
+      </c>
+      <c r="B134">
+        <v>129.86000000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="2">
+        <v>85.5</v>
+      </c>
+      <c r="B135">
+        <v>130.31</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="2">
+        <v>86</v>
+      </c>
+      <c r="B136">
+        <v>130.76</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="2">
+        <v>86.5</v>
+      </c>
+      <c r="B137">
+        <v>131.19999999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="2">
+        <v>87</v>
+      </c>
+      <c r="B138">
+        <v>131.63999999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="2">
+        <v>87.5</v>
+      </c>
+      <c r="B139">
+        <v>132.07</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="2">
+        <v>88</v>
+      </c>
+      <c r="B140">
+        <v>132.5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="2">
+        <v>88.5</v>
+      </c>
+      <c r="B141">
+        <v>132.93</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="2">
+        <v>89</v>
+      </c>
+      <c r="B142">
+        <v>133.35</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="2">
+        <v>89.5</v>
+      </c>
+      <c r="B143">
+        <v>133.76</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="2">
+        <v>90</v>
+      </c>
+      <c r="B144">
+        <v>134.16999999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="2">
+        <v>90.5</v>
+      </c>
+      <c r="B145">
+        <v>134.58000000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="2">
+        <v>91</v>
+      </c>
+      <c r="B146">
+        <v>134.97999999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="2">
+        <v>91.5</v>
+      </c>
+      <c r="B147">
+        <v>135.38</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="2">
+        <v>92</v>
+      </c>
+      <c r="B148">
+        <v>135.78</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="2">
+        <v>92.5</v>
+      </c>
+      <c r="B149">
+        <v>136.16999999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="2">
+        <v>93</v>
+      </c>
+      <c r="B150">
+        <v>136.56</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="2">
+        <v>93.5</v>
+      </c>
+      <c r="B151">
+        <v>136.94</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="2">
+        <v>94</v>
+      </c>
+      <c r="B152">
+        <v>137.32</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="2">
+        <v>94.5</v>
+      </c>
+      <c r="B153">
+        <v>137.69999999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="2">
+        <v>95</v>
+      </c>
+      <c r="B154">
+        <v>138.07</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="2">
+        <v>95.5</v>
+      </c>
+      <c r="B155">
+        <v>138.44</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="2">
+        <v>96</v>
+      </c>
+      <c r="B156">
+        <v>138.80000000000001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="2">
+        <v>96.5</v>
+      </c>
+      <c r="B157">
+        <v>139.16</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="2">
+        <v>97</v>
+      </c>
+      <c r="B158">
+        <v>139.52000000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="2">
+        <v>97.5</v>
+      </c>
+      <c r="B159">
+        <v>139.88</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="2">
+        <v>98</v>
+      </c>
+      <c r="B160">
+        <v>140.22999999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="2">
+        <v>98.5</v>
+      </c>
+      <c r="B161">
+        <v>140.57</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="2">
+        <v>99</v>
+      </c>
+      <c r="B162">
+        <v>140.91999999999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="2">
+        <v>99.5</v>
+      </c>
+      <c r="B163">
+        <v>141.26</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="2">
+        <v>100</v>
+      </c>
+      <c r="B164">
+        <v>141.59</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="2">
+        <v>100.5</v>
+      </c>
+      <c r="B165">
+        <v>141.93</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="2">
+        <v>101</v>
+      </c>
+      <c r="B166">
+        <v>142.26</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="2">
+        <v>101.5</v>
+      </c>
+      <c r="B167">
+        <v>142.59</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="2">
+        <v>102</v>
+      </c>
+      <c r="B168">
+        <v>142.91</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="2">
+        <v>102.5</v>
+      </c>
+      <c r="B169">
+        <v>143.22999999999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="2">
+        <v>103</v>
+      </c>
+      <c r="B170">
+        <v>143.55000000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="2">
+        <v>103.5</v>
+      </c>
+      <c r="B171">
+        <v>143.86000000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="2">
+        <v>104</v>
+      </c>
+      <c r="B172">
+        <v>144.16999999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="2">
+        <v>104.5</v>
+      </c>
+      <c r="B173">
+        <v>144.47999999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="2">
+        <v>105</v>
+      </c>
+      <c r="B174">
+        <v>144.78</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="2">
+        <v>105.5</v>
+      </c>
+      <c r="B175">
+        <v>145.09</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="2">
+        <v>106</v>
+      </c>
+      <c r="B176">
+        <v>145.38</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="2">
+        <v>106.5</v>
+      </c>
+      <c r="B177">
+        <v>145.68</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="2">
+        <v>107</v>
+      </c>
+      <c r="B178">
+        <v>145.97</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="2">
+        <v>107.5</v>
+      </c>
+      <c r="B179">
+        <v>146.26</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="2">
+        <v>108</v>
+      </c>
+      <c r="B180">
+        <v>146.55000000000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="2">
+        <v>108.5</v>
+      </c>
+      <c r="B181">
+        <v>146.83000000000001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="2">
+        <v>109</v>
+      </c>
+      <c r="B182">
+        <v>147.11000000000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="2">
+        <v>109.5</v>
+      </c>
+      <c r="B183">
+        <v>147.38999999999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="2">
+        <v>110</v>
+      </c>
+      <c r="B184">
+        <v>147.66999999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="2">
+        <v>110.5</v>
+      </c>
+      <c r="B185">
+        <v>147.94</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="2">
+        <v>111</v>
+      </c>
+      <c r="B186">
+        <v>148.21</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="2">
+        <v>111.5</v>
+      </c>
+      <c r="B187">
+        <v>148.47999999999999</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="2">
+        <v>112</v>
+      </c>
+      <c r="B188">
+        <v>148.74</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="2">
+        <v>112.5</v>
+      </c>
+      <c r="B189">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="2">
+        <v>113</v>
+      </c>
+      <c r="B190">
+        <v>149.26</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="2">
+        <v>113.5</v>
+      </c>
+      <c r="B191">
+        <v>149.52000000000001</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="2">
+        <v>114</v>
+      </c>
+      <c r="B192">
+        <v>149.78</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="2">
+        <v>114.5</v>
+      </c>
+      <c r="B193">
+        <v>150.03</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="2">
+        <v>115</v>
+      </c>
+      <c r="B194">
+        <v>150.28</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="2">
+        <v>115.5</v>
+      </c>
+      <c r="B195">
+        <v>150.52000000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="2">
+        <v>116</v>
+      </c>
+      <c r="B196">
+        <v>150.77000000000001</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="2">
+        <v>116.5</v>
+      </c>
+      <c r="B197">
+        <v>151.01</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="2">
+        <v>117</v>
+      </c>
+      <c r="B198">
+        <v>151.25</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="2">
+        <v>117.5</v>
+      </c>
+      <c r="B199">
+        <v>151.49</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="2">
+        <v>118</v>
+      </c>
+      <c r="B200">
+        <v>151.72</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="2">
+        <v>118.5</v>
+      </c>
+      <c r="B201">
+        <v>151.94999999999999</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="2">
+        <v>119</v>
+      </c>
+      <c r="B202">
+        <v>152.18</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="2">
+        <v>119.5</v>
+      </c>
+      <c r="B203">
+        <v>152.41</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="2">
+        <v>120</v>
+      </c>
+      <c r="B204">
+        <v>152.63999999999999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="2">
+        <v>120.5</v>
+      </c>
+      <c r="B205">
+        <v>152.86000000000001</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="2">
+        <v>121</v>
+      </c>
+      <c r="B206">
+        <v>153.08000000000001</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="2">
+        <v>121.5</v>
+      </c>
+      <c r="B207">
+        <v>153.30000000000001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="2">
+        <v>122</v>
+      </c>
+      <c r="B208">
+        <v>153.52000000000001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="2">
+        <v>122.5</v>
+      </c>
+      <c r="B209">
+        <v>153.72999999999999</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="2">
+        <v>123</v>
+      </c>
+      <c r="B210">
+        <v>153.94</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="2">
+        <v>123.5</v>
+      </c>
+      <c r="B211">
+        <v>154.15</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="2">
+        <v>124</v>
+      </c>
+      <c r="B212">
+        <v>154.36000000000001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="2">
+        <v>124.5</v>
+      </c>
+      <c r="B213">
+        <v>154.57</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="2">
+        <v>125</v>
+      </c>
+      <c r="B214">
+        <v>154.77000000000001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="2">
+        <v>125.5</v>
+      </c>
+      <c r="B215">
+        <v>154.97</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="2">
+        <v>126</v>
+      </c>
+      <c r="B216">
+        <v>155.16999999999999</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="2">
+        <v>126.5</v>
+      </c>
+      <c r="B217">
+        <v>155.37</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="2">
+        <v>127</v>
+      </c>
+      <c r="B218">
+        <v>155.57</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="2">
+        <v>127.5</v>
+      </c>
+      <c r="B219">
+        <v>155.76</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="2">
+        <v>128</v>
+      </c>
+      <c r="B220">
+        <v>155.94999999999999</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="2">
+        <v>128.5</v>
+      </c>
+      <c r="B221">
+        <v>156.13999999999999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="2">
+        <v>129</v>
+      </c>
+      <c r="B222">
+        <v>156.33000000000001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="2">
+        <v>129.5</v>
+      </c>
+      <c r="B223">
+        <v>156.52000000000001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="2">
+        <v>130</v>
+      </c>
+      <c r="B224">
+        <v>156.69999999999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="2">
+        <v>130.5</v>
+      </c>
+      <c r="B225">
+        <v>156.88</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="2">
+        <v>131</v>
+      </c>
+      <c r="B226">
+        <v>157.07</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="2">
+        <v>131.5</v>
+      </c>
+      <c r="B227">
+        <v>157.24</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="2">
+        <v>132</v>
+      </c>
+      <c r="B228">
+        <v>157.41999999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="2">
+        <v>132.5</v>
+      </c>
+      <c r="B229">
+        <v>157.6</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="2">
+        <v>133</v>
+      </c>
+      <c r="B230">
+        <v>157.77000000000001</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="2">
+        <v>133.5</v>
+      </c>
+      <c r="B231">
+        <v>157.94</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="2">
+        <v>134</v>
+      </c>
+      <c r="B232">
+        <v>158.11000000000001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="2">
+        <v>134.5</v>
+      </c>
+      <c r="B233">
+        <v>158.28</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="2">
+        <v>135</v>
+      </c>
+      <c r="B234">
+        <v>158.44999999999999</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="2">
+        <v>135.5</v>
+      </c>
+      <c r="B235">
+        <v>158.61000000000001</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="2">
+        <v>136</v>
+      </c>
+      <c r="B236">
+        <v>158.78</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="2">
+        <v>136.5</v>
+      </c>
+      <c r="B237">
+        <v>158.94</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="2">
+        <v>137</v>
+      </c>
+      <c r="B238">
+        <v>159.1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="2">
+        <v>137.5</v>
+      </c>
+      <c r="B239">
+        <v>159.26</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="2">
+        <v>138</v>
+      </c>
+      <c r="B240">
+        <v>159.41999999999999</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="2">
+        <v>138.5</v>
+      </c>
+      <c r="B241">
+        <v>159.57</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="2">
+        <v>139</v>
+      </c>
+      <c r="B242">
+        <v>159.72999999999999</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="2">
+        <v>139.5</v>
+      </c>
+      <c r="B243">
+        <v>159.88</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="2">
+        <v>140</v>
+      </c>
+      <c r="B244">
+        <v>160.03</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="2">
+        <v>140.5</v>
+      </c>
+      <c r="B245">
+        <v>160.18</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="2">
+        <v>141</v>
+      </c>
+      <c r="B246">
+        <v>160.33000000000001</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="2">
+        <v>141.5</v>
+      </c>
+      <c r="B247">
+        <v>160.47</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="2">
+        <v>142</v>
+      </c>
+      <c r="B248">
+        <v>160.62</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="2">
+        <v>142.5</v>
+      </c>
+      <c r="B249">
+        <v>160.76</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="2">
+        <v>143</v>
+      </c>
+      <c r="B250">
+        <v>160.9</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="2">
+        <v>143.5</v>
+      </c>
+      <c r="B251">
+        <v>161.04</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="2">
+        <v>144</v>
+      </c>
+      <c r="B252">
+        <v>161.18</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="2">
+        <v>144.5</v>
+      </c>
+      <c r="B253">
+        <v>161.32</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="2">
+        <v>145</v>
+      </c>
+      <c r="B254">
+        <v>161.46</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="2">
+        <v>145.5</v>
+      </c>
+      <c r="B255">
+        <v>161.59</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="2">
+        <v>146</v>
+      </c>
+      <c r="B256">
+        <v>161.72999999999999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="2">
+        <v>146.5</v>
+      </c>
+      <c r="B257">
+        <v>161.86000000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="2">
+        <v>147</v>
+      </c>
+      <c r="B258">
+        <v>161.99</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="2">
+        <v>147.5</v>
+      </c>
+      <c r="B259">
+        <v>162.12</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="2">
+        <v>148</v>
+      </c>
+      <c r="B260">
+        <v>162.25</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="2">
+        <v>148.5</v>
+      </c>
+      <c r="B261">
+        <v>162.38</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="2">
+        <v>149</v>
+      </c>
+      <c r="B262">
+        <v>162.5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="2">
+        <v>149.5</v>
+      </c>
+      <c r="B263">
+        <v>162.63</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="2">
+        <v>150</v>
+      </c>
+      <c r="B264">
+        <v>162.75</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="2">
+        <v>150.5</v>
+      </c>
+      <c r="B265">
+        <v>162.87</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="2">
+        <v>151</v>
+      </c>
+      <c r="B266">
+        <v>162.99</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="2">
+        <v>151.5</v>
+      </c>
+      <c r="B267">
+        <v>163.11000000000001</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="2">
+        <v>152</v>
+      </c>
+      <c r="B268">
+        <v>163.22999999999999</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="2">
+        <v>152.5</v>
+      </c>
+      <c r="B269">
+        <v>163.35</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="2">
+        <v>153</v>
+      </c>
+      <c r="B270">
+        <v>163.47</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="2">
+        <v>153.5</v>
+      </c>
+      <c r="B271">
+        <v>163.58000000000001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="2">
+        <v>154</v>
+      </c>
+      <c r="B272">
+        <v>163.69999999999999</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="2">
+        <v>154.5</v>
+      </c>
+      <c r="B273">
+        <v>163.81</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="2">
+        <v>155</v>
+      </c>
+      <c r="B274">
+        <v>163.92</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="2">
+        <v>155.5</v>
+      </c>
+      <c r="B275">
+        <v>164.03</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="2">
+        <v>156</v>
+      </c>
+      <c r="B276">
+        <v>164.14</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="2">
+        <v>156.5</v>
+      </c>
+      <c r="B277">
+        <v>164.25</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="2">
+        <v>157</v>
+      </c>
+      <c r="B278">
+        <v>164.36</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="2">
+        <v>157.5</v>
+      </c>
+      <c r="B279">
+        <v>164.46</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="2">
+        <v>158</v>
+      </c>
+      <c r="B280">
+        <v>164.57</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="2">
+        <v>158.5</v>
+      </c>
+      <c r="B281">
+        <v>164.67</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="2">
+        <v>159</v>
+      </c>
+      <c r="B282">
+        <v>164.77</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="2">
+        <v>159.5</v>
+      </c>
+      <c r="B283">
+        <v>164.88</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="2">
+        <v>160</v>
+      </c>
+      <c r="B284">
+        <v>164.98</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="2">
+        <v>160.5</v>
+      </c>
+      <c r="B285">
+        <v>165.08</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="2">
+        <v>161</v>
+      </c>
+      <c r="B286">
+        <v>165.18</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="2">
+        <v>161.5</v>
+      </c>
+      <c r="B287">
+        <v>165.27</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="2">
+        <v>162</v>
+      </c>
+      <c r="B288">
+        <v>165.37</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="2">
+        <v>162.5</v>
+      </c>
+      <c r="B289">
+        <v>165.47</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="2">
+        <v>163</v>
+      </c>
+      <c r="B290">
+        <v>165.56</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="2">
+        <v>163.5</v>
+      </c>
+      <c r="B291">
+        <v>165.66</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="2">
+        <v>164</v>
+      </c>
+      <c r="B292">
+        <v>165.75</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="2">
+        <v>164.5</v>
+      </c>
+      <c r="B293">
+        <v>165.84</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="2">
+        <v>165</v>
+      </c>
+      <c r="B294">
+        <v>165.93</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="2">
+        <v>165.5</v>
+      </c>
+      <c r="B295">
+        <v>166.03</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="2">
+        <v>166</v>
+      </c>
+      <c r="B296">
+        <v>166.12</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="2">
+        <v>166.5</v>
+      </c>
+      <c r="B297">
+        <v>166.21</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="2">
+        <v>167</v>
+      </c>
+      <c r="B298">
+        <v>166.29</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="2">
+        <v>167.5</v>
+      </c>
+      <c r="B299">
+        <v>166.38</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="2">
+        <v>168</v>
+      </c>
+      <c r="B300">
+        <v>166.47</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="2">
+        <v>168.5</v>
+      </c>
+      <c r="B301">
+        <v>166.56</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="2">
+        <v>169</v>
+      </c>
+      <c r="B302">
+        <v>166.65</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="2">
+        <v>169.5</v>
+      </c>
+      <c r="B303">
+        <v>166.74</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="2">
+        <v>170</v>
+      </c>
+      <c r="B304">
+        <v>166.83</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="2">
+        <v>170.5</v>
+      </c>
+      <c r="B305">
+        <v>166.92</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="2">
+        <v>171</v>
+      </c>
+      <c r="B306">
+        <v>167.01</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="2">
+        <v>171.5</v>
+      </c>
+      <c r="B307">
+        <v>167.1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="2">
+        <v>172</v>
+      </c>
+      <c r="B308">
+        <v>167.19</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="2">
+        <v>172.5</v>
+      </c>
+      <c r="B309">
+        <v>167.29</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="2">
+        <v>173</v>
+      </c>
+      <c r="B310">
+        <v>167.38</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="2">
+        <v>173.5</v>
+      </c>
+      <c r="B311">
+        <v>167.49</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="2">
+        <v>174</v>
+      </c>
+      <c r="B312">
+        <v>167.59</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="2">
+        <v>174.5</v>
+      </c>
+      <c r="B313">
+        <v>167.7</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="2">
+        <v>175</v>
+      </c>
+      <c r="B314">
+        <v>167.81</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="2">
+        <v>175.5</v>
+      </c>
+      <c r="B315">
+        <v>167.93</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="2">
+        <v>176</v>
+      </c>
+      <c r="B316">
+        <v>168.05</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="2">
+        <v>176.5</v>
+      </c>
+      <c r="B317">
+        <v>168.18</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="2">
+        <v>177</v>
+      </c>
+      <c r="B318">
+        <v>168.31</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="2">
+        <v>177.5</v>
+      </c>
+      <c r="B319">
+        <v>168.45</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="2">
+        <v>178</v>
+      </c>
+      <c r="B320">
+        <v>168.59</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="2">
+        <v>178.5</v>
+      </c>
+      <c r="B321">
+        <v>168.75</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="2">
+        <v>179</v>
+      </c>
+      <c r="B322">
+        <v>168.9</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="2">
+        <v>179.5</v>
+      </c>
+      <c r="B323">
+        <v>169.07</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="2">
+        <v>180</v>
+      </c>
+      <c r="B324">
+        <v>169.24</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="2">
+        <v>180.5</v>
+      </c>
+      <c r="B325">
+        <v>169.41</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="2">
+        <v>181</v>
+      </c>
+      <c r="B326">
+        <v>169.6</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="2">
+        <v>181.5</v>
+      </c>
+      <c r="B327">
+        <v>169.78</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="2">
+        <v>182</v>
+      </c>
+      <c r="B328">
+        <v>169.98</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="2">
+        <v>182.5</v>
+      </c>
+      <c r="B329">
+        <v>170.18</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="2">
+        <v>183</v>
+      </c>
+      <c r="B330">
+        <v>170.38</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="2">
+        <v>183.5</v>
+      </c>
+      <c r="B331">
+        <v>170.59</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="2">
+        <v>184</v>
+      </c>
+      <c r="B332">
+        <v>170.81</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="2">
+        <v>184.5</v>
+      </c>
+      <c r="B333">
+        <v>171.03</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="2">
+        <v>185</v>
+      </c>
+      <c r="B334">
+        <v>171.25</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="2">
+        <v>185.5</v>
+      </c>
+      <c r="B335">
+        <v>171.47</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="2">
+        <v>186</v>
+      </c>
+      <c r="B336">
+        <v>171.7</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="2">
+        <v>186.5</v>
+      </c>
+      <c r="B337">
+        <v>171.93</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="2">
+        <v>187</v>
+      </c>
+      <c r="B338">
+        <v>172.16</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="2">
+        <v>187.5</v>
+      </c>
+      <c r="B339">
+        <v>172.39</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="2">
+        <v>188</v>
+      </c>
+      <c r="B340">
+        <v>172.62</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="2">
+        <v>188.5</v>
+      </c>
+      <c r="B341">
+        <v>172.86</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="2">
+        <v>189</v>
+      </c>
+      <c r="B342">
+        <v>173.09</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" s="2">
+        <v>189.5</v>
+      </c>
+      <c r="B343">
+        <v>173.32</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" s="2">
+        <v>190</v>
+      </c>
+      <c r="B344">
+        <v>173.56</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" s="2">
+        <v>190.5</v>
+      </c>
+      <c r="B345">
+        <v>173.79</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" s="2">
+        <v>191</v>
+      </c>
+      <c r="B346">
+        <v>174.02</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" s="2">
+        <v>191.5</v>
+      </c>
+      <c r="B347">
+        <v>174.26</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" s="2">
+        <v>192</v>
+      </c>
+      <c r="B348">
+        <v>174.49</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" s="2">
+        <v>192.5</v>
+      </c>
+      <c r="B349">
+        <v>174.72</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" s="2">
+        <v>193</v>
+      </c>
+      <c r="B350">
+        <v>174.94</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" s="2">
+        <v>193.5</v>
+      </c>
+      <c r="B351">
+        <v>175.17</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="2">
+        <v>194</v>
+      </c>
+      <c r="B352">
+        <v>175.39</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="2">
+        <v>194.5</v>
+      </c>
+      <c r="B353">
+        <v>175.62</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" s="2">
+        <v>195</v>
+      </c>
+      <c r="B354">
+        <v>175.84</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="2">
+        <v>195.5</v>
+      </c>
+      <c r="B355">
+        <v>176.06</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" s="2">
+        <v>196</v>
+      </c>
+      <c r="B356">
+        <v>176.28</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" s="2">
+        <v>196.5</v>
+      </c>
+      <c r="B357">
+        <v>176.5</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" s="2">
+        <v>197</v>
+      </c>
+      <c r="B358">
+        <v>176.73</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" s="2">
+        <v>197.5</v>
+      </c>
+      <c r="B359">
+        <v>176.95</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" s="2">
+        <v>198</v>
+      </c>
+      <c r="B360">
+        <v>177.18</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" s="2">
+        <v>198.5</v>
+      </c>
+      <c r="B361">
+        <v>177.4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" s="2">
+        <v>199</v>
+      </c>
+      <c r="B362">
+        <v>177.63</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" s="2">
+        <v>199.5</v>
+      </c>
+      <c r="B363">
+        <v>177.86</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" s="2">
+        <v>200</v>
+      </c>
+      <c r="B364">
+        <v>178.09</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" s="2">
+        <v>200.5</v>
+      </c>
+      <c r="B365">
+        <v>178.33</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" s="2">
+        <v>201</v>
+      </c>
+      <c r="B366">
+        <v>178.58</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" s="2">
+        <v>201.5</v>
+      </c>
+      <c r="B367">
+        <v>178.83</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" s="2">
+        <v>202</v>
+      </c>
+      <c r="B368">
+        <v>179.09</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" s="2">
+        <v>202.5</v>
+      </c>
+      <c r="B369">
+        <v>179.36</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" s="2">
+        <v>203</v>
+      </c>
+      <c r="B370">
+        <v>179.63</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" s="2">
+        <v>203.5</v>
+      </c>
+      <c r="B371">
+        <v>179.93</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" s="2">
+        <v>204</v>
+      </c>
+      <c r="B372">
+        <v>180.23</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" s="2">
+        <v>204.5</v>
+      </c>
+      <c r="B373">
+        <v>180.55</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" s="2">
+        <v>205</v>
+      </c>
+      <c r="B374">
+        <v>180.89</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" s="2">
+        <v>205.5</v>
+      </c>
+      <c r="B375">
+        <v>181.25</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" s="2">
+        <v>206</v>
+      </c>
+      <c r="B376">
+        <v>181.62</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" s="2">
+        <v>206.5</v>
+      </c>
+      <c r="B377">
+        <v>182.01</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" s="2">
+        <v>207</v>
+      </c>
+      <c r="B378">
+        <v>182.42</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" s="2">
+        <v>207.5</v>
+      </c>
+      <c r="B379">
+        <v>182.86</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" s="2">
+        <v>208</v>
+      </c>
+      <c r="B380">
+        <v>183.32</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" s="2">
+        <v>208.5</v>
+      </c>
+      <c r="B381">
+        <v>183.79</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" s="2">
+        <v>209</v>
+      </c>
+      <c r="B382">
+        <v>184.28</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" s="2">
+        <v>209.5</v>
+      </c>
+      <c r="B383">
+        <v>184.8</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" s="2">
+        <v>210</v>
+      </c>
+      <c r="B384">
+        <v>185.32</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" s="2">
+        <v>210.5</v>
+      </c>
+      <c r="B385">
+        <v>185.87</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" s="2">
+        <v>211</v>
+      </c>
+      <c r="B386">
+        <v>186.43</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" s="2">
+        <v>211.5</v>
+      </c>
+      <c r="B387">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" s="2">
+        <v>212</v>
+      </c>
+      <c r="B388">
+        <v>187.58</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" s="2">
+        <v>212.5</v>
+      </c>
+      <c r="B389">
+        <v>188.18</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" s="2">
+        <v>213</v>
+      </c>
+      <c r="B390">
+        <v>188.78</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" s="2">
+        <v>213.5</v>
+      </c>
+      <c r="B391">
+        <v>189.4</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" s="2">
+        <v>214</v>
+      </c>
+      <c r="B392">
+        <v>190.02</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" s="2">
+        <v>214.5</v>
+      </c>
+      <c r="B393">
+        <v>190.64</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" s="2">
+        <v>215</v>
+      </c>
+      <c r="B394">
+        <v>191.26</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" s="2">
+        <v>215.5</v>
+      </c>
+      <c r="B395">
+        <v>191.89</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" s="2">
+        <v>216</v>
+      </c>
+      <c r="B396">
+        <v>192.51</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" s="2">
+        <v>216.5</v>
+      </c>
+      <c r="B397">
+        <v>193.14</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" s="2">
+        <v>217</v>
+      </c>
+      <c r="B398">
+        <v>193.76</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" s="2">
+        <v>217.5</v>
+      </c>
+      <c r="B399">
+        <v>194.37</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" s="2">
+        <v>218</v>
+      </c>
+      <c r="B400">
+        <v>194.99</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" s="2">
+        <v>218.5</v>
+      </c>
+      <c r="B401">
+        <v>195.6</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" s="2">
+        <v>219</v>
+      </c>
+      <c r="B402">
+        <v>196.2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" s="2">
+        <v>219.5</v>
+      </c>
+      <c r="B403">
+        <v>196.8</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" s="2">
+        <v>220</v>
+      </c>
+      <c r="B404">
+        <v>197.39</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" s="2">
+        <v>220.5</v>
+      </c>
+      <c r="B405">
+        <v>197.97</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" s="2">
+        <v>221</v>
+      </c>
+      <c r="B406">
+        <v>198.55</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" s="2">
+        <v>221.5</v>
+      </c>
+      <c r="B407">
+        <v>199.12</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" s="2">
+        <v>222</v>
+      </c>
+      <c r="B408">
+        <v>199.69</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" s="2">
+        <v>222.5</v>
+      </c>
+      <c r="B409">
+        <v>200.25</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" s="2">
+        <v>223</v>
+      </c>
+      <c r="B410">
+        <v>200.79</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" s="2">
+        <v>223.5</v>
+      </c>
+      <c r="B411">
+        <v>201.34</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" s="2">
+        <v>224</v>
+      </c>
+      <c r="B412">
+        <v>201.87</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" s="2">
+        <v>224.5</v>
+      </c>
+      <c r="B413">
+        <v>202.4</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" s="2">
+        <v>225</v>
+      </c>
+      <c r="B414">
+        <v>202.92</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" s="2">
+        <v>225.5</v>
+      </c>
+      <c r="B415">
+        <v>203.43</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" s="2">
+        <v>226</v>
+      </c>
+      <c r="B416">
+        <v>203.93</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" s="2">
+        <v>226.5</v>
+      </c>
+      <c r="B417">
+        <v>204.42</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" s="2">
+        <v>227</v>
+      </c>
+      <c r="B418">
+        <v>204.89</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" s="2">
+        <v>227.5</v>
+      </c>
+      <c r="B419">
+        <v>205.36</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" s="2">
+        <v>228</v>
+      </c>
+      <c r="B420">
+        <v>205.81</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" s="2">
+        <v>228.5</v>
+      </c>
+      <c r="B421">
+        <v>206.25</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" s="2">
+        <v>229</v>
+      </c>
+      <c r="B422">
+        <v>206.68</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" s="2">
+        <v>229.5</v>
+      </c>
+      <c r="B423">
+        <v>207.1</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" s="2">
+        <v>230</v>
+      </c>
+      <c r="B424">
+        <v>207.51</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" s="2">
+        <v>230.5</v>
+      </c>
+      <c r="B425">
+        <v>207.92</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" s="2">
+        <v>231</v>
+      </c>
+      <c r="B426">
+        <v>208.31</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" s="2">
+        <v>231.5</v>
+      </c>
+      <c r="B427">
+        <v>208.7</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" s="2">
+        <v>232</v>
+      </c>
+      <c r="B428">
+        <v>209.08</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" s="2">
+        <v>232.5</v>
+      </c>
+      <c r="B429">
+        <v>209.46</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2">
+      <c r="A430" s="2">
+        <v>233</v>
+      </c>
+      <c r="B430">
+        <v>209.83</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2">
+      <c r="A431" s="2">
+        <v>233.5</v>
+      </c>
+      <c r="B431">
+        <v>210.19</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2">
+      <c r="A432" s="2">
+        <v>234</v>
+      </c>
+      <c r="B432">
+        <v>210.55</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2">
+      <c r="A433" s="2">
+        <v>234.5</v>
+      </c>
+      <c r="B433">
+        <v>210.91</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2">
+      <c r="A434" s="2">
+        <v>235</v>
+      </c>
+      <c r="B434">
+        <v>211.26</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2">
+      <c r="A435" s="2">
+        <v>235.5</v>
+      </c>
+      <c r="B435">
+        <v>211.61</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2">
+      <c r="A436" s="2">
+        <v>236</v>
+      </c>
+      <c r="B436">
+        <v>211.95</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2">
+      <c r="A437" s="2">
+        <v>236.5</v>
+      </c>
+      <c r="B437">
+        <v>212.3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2">
+      <c r="A438" s="2">
+        <v>237</v>
+      </c>
+      <c r="B438">
+        <v>212.64</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2">
+      <c r="A439" s="2">
+        <v>237.5</v>
+      </c>
+      <c r="B439">
+        <v>212.97</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2">
+      <c r="A440" s="2">
+        <v>238</v>
+      </c>
+      <c r="B440">
+        <v>213.3</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2">
+      <c r="A441" s="2">
+        <v>238.5</v>
+      </c>
+      <c r="B441">
+        <v>213.63</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2">
+      <c r="A442" s="2">
+        <v>239</v>
+      </c>
+      <c r="B442">
+        <v>213.96</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2">
+      <c r="A443" s="2">
+        <v>239.5</v>
+      </c>
+      <c r="B443">
+        <v>214.3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2">
+      <c r="A444" s="2">
+        <v>240</v>
+      </c>
+      <c r="B444">
+        <v>214.63</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2">
+      <c r="A445" s="2">
+        <v>240.5</v>
+      </c>
+      <c r="B445">
+        <v>214.97</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2">
+      <c r="A446" s="2">
+        <v>241</v>
+      </c>
+      <c r="B446">
+        <v>215.31</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2">
+      <c r="A447" s="2">
+        <v>241.5</v>
+      </c>
+      <c r="B447">
+        <v>215.65</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2">
+      <c r="A448" s="2">
+        <v>242</v>
+      </c>
+      <c r="B448">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2">
+      <c r="A449" s="2">
+        <v>242.5</v>
+      </c>
+      <c r="B449">
+        <v>216.35</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2">
+      <c r="A450" s="2">
+        <v>243</v>
+      </c>
+      <c r="B450">
+        <v>216.7</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2">
+      <c r="A451" s="2">
+        <v>243.5</v>
+      </c>
+      <c r="B451">
+        <v>217.05</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2">
+      <c r="A452" s="2">
+        <v>244</v>
+      </c>
+      <c r="B452">
+        <v>217.41</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2">
+      <c r="A453" s="2">
+        <v>244.5</v>
+      </c>
+      <c r="B453">
+        <v>217.76</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2">
+      <c r="A454" s="2">
+        <v>245</v>
+      </c>
+      <c r="B454">
+        <v>218.12</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2">
+      <c r="A455" s="2">
+        <v>245.5</v>
+      </c>
+      <c r="B455">
+        <v>218.48</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2">
+      <c r="A456" s="2">
+        <v>246</v>
+      </c>
+      <c r="B456">
+        <v>218.85</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2">
+      <c r="A457" s="2">
+        <v>246.5</v>
+      </c>
+      <c r="B457">
+        <v>219.21</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2">
+      <c r="A458" s="2">
+        <v>247</v>
+      </c>
+      <c r="B458">
+        <v>219.57</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2">
+      <c r="A459" s="2">
+        <v>247.5</v>
+      </c>
+      <c r="B459">
+        <v>219.93</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2">
+      <c r="A460" s="2">
+        <v>248</v>
+      </c>
+      <c r="B460">
+        <v>220.29</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2">
+      <c r="A461" s="2">
+        <v>248.5</v>
+      </c>
+      <c r="B461">
+        <v>220.65</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2">
+      <c r="A462" s="2">
+        <v>249</v>
+      </c>
+      <c r="B462">
+        <v>221.01</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2">
+      <c r="A463" s="2">
+        <v>249.5</v>
+      </c>
+      <c r="B463">
+        <v>221.37</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2">
+      <c r="A464" s="2">
+        <v>250</v>
+      </c>
+      <c r="B464">
+        <v>221.73</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2">
+      <c r="A465" s="2">
+        <v>250.5</v>
+      </c>
+      <c r="B465">
+        <v>222.08</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2">
+      <c r="A466" s="2">
+        <v>251</v>
+      </c>
+      <c r="B466">
+        <v>222.44</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2">
+      <c r="A467" s="2">
+        <v>251.5</v>
+      </c>
+      <c r="B467">
+        <v>222.79</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2">
+      <c r="A468" s="2">
+        <v>252</v>
+      </c>
+      <c r="B468">
+        <v>223.14</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2">
+      <c r="A469" s="2">
+        <v>252.5</v>
+      </c>
+      <c r="B469">
+        <v>223.48</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2">
+      <c r="A470" s="2">
+        <v>253</v>
+      </c>
+      <c r="B470">
+        <v>223.83</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2">
+      <c r="A471" s="2">
+        <v>253.5</v>
+      </c>
+      <c r="B471">
+        <v>224.17</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2">
+      <c r="A472" s="2">
+        <v>254</v>
+      </c>
+      <c r="B472">
+        <v>224.51</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2">
+      <c r="A473" s="2">
+        <v>254.5</v>
+      </c>
+      <c r="B473">
+        <v>224.85</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2">
+      <c r="A474" s="2">
+        <v>255</v>
+      </c>
+      <c r="B474">
+        <v>225.18</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2">
+      <c r="A475" s="2">
+        <v>255.5</v>
+      </c>
+      <c r="B475">
+        <v>225.51</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2">
+      <c r="A476" s="2">
+        <v>256</v>
+      </c>
+      <c r="B476">
+        <v>225.84</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2">
+      <c r="A477" s="2">
+        <v>256.5</v>
+      </c>
+      <c r="B477">
+        <v>226.16</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2">
+      <c r="A478" s="2">
+        <v>257</v>
+      </c>
+      <c r="B478">
+        <v>226.49</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2">
+      <c r="A479" s="2">
+        <v>257.5</v>
+      </c>
+      <c r="B479">
+        <v>226.8</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2">
+      <c r="A480" s="2">
+        <v>258</v>
+      </c>
+      <c r="B480">
+        <v>227.12</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2">
+      <c r="A481" s="2">
+        <v>258.5</v>
+      </c>
+      <c r="B481">
+        <v>227.43</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2">
+      <c r="A482" s="2">
+        <v>259</v>
+      </c>
+      <c r="B482">
+        <v>227.74</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2">
+      <c r="A483" s="2">
+        <v>259.5</v>
+      </c>
+      <c r="B483">
+        <v>228.05</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2">
+      <c r="A484" s="2">
+        <v>260</v>
+      </c>
+      <c r="B484">
+        <v>228.35</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2">
+      <c r="A485" s="2">
+        <v>260.5</v>
+      </c>
+      <c r="B485">
+        <v>228.65</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2">
+      <c r="A486" s="2">
+        <v>261</v>
+      </c>
+      <c r="B486">
+        <v>228.95</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2">
+      <c r="A487" s="2">
+        <v>261.5</v>
+      </c>
+      <c r="B487">
+        <v>229.24</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2">
+      <c r="A488" s="2">
+        <v>262</v>
+      </c>
+      <c r="B488">
+        <v>229.53</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2">
+      <c r="A489" s="2">
+        <v>262.5</v>
+      </c>
+      <c r="B489">
+        <v>229.82</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2">
+      <c r="A490" s="2">
+        <v>263</v>
+      </c>
+      <c r="B490">
+        <v>230.11</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2">
+      <c r="A491" s="2">
+        <v>263.5</v>
+      </c>
+      <c r="B491">
+        <v>230.39</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2">
+      <c r="A492" s="2">
+        <v>264</v>
+      </c>
+      <c r="B492">
+        <v>230.67</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2">
+      <c r="A493" s="2">
+        <v>264.5</v>
+      </c>
+      <c r="B493">
+        <v>230.94</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2">
+      <c r="A494" s="2">
+        <v>265</v>
+      </c>
+      <c r="B494">
+        <v>231.22</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2">
+      <c r="A495" s="2">
+        <v>265.5</v>
+      </c>
+      <c r="B495">
+        <v>231.49</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2">
+      <c r="A496" s="2">
+        <v>266</v>
+      </c>
+      <c r="B496">
+        <v>231.75</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2">
+      <c r="A497" s="2">
+        <v>266.5</v>
+      </c>
+      <c r="B497">
+        <v>232.02</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2">
+      <c r="A498" s="2">
+        <v>267</v>
+      </c>
+      <c r="B498">
+        <v>232.28</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2">
+      <c r="A499" s="2">
+        <v>267.5</v>
+      </c>
+      <c r="B499">
+        <v>232.53</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2">
+      <c r="A500" s="2">
+        <v>268</v>
+      </c>
+      <c r="B500">
+        <v>232.79</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2">
+      <c r="A501" s="2">
+        <v>268.5</v>
+      </c>
+      <c r="B501">
+        <v>233.04</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2">
+      <c r="A502" s="2">
+        <v>269</v>
+      </c>
+      <c r="B502">
+        <v>233.29</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2">
+      <c r="A503" s="2">
+        <v>269.5</v>
+      </c>
+      <c r="B503">
+        <v>233.54</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2">
+      <c r="A504" s="2">
+        <v>270</v>
+      </c>
+      <c r="B504">
+        <v>233.78</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2">
+      <c r="A505" s="2">
+        <v>270.5</v>
+      </c>
+      <c r="B505">
+        <v>234.02</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2">
+      <c r="A506" s="2">
+        <v>271</v>
+      </c>
+      <c r="B506">
+        <v>234.26</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="A507" s="2">
+        <v>271.5</v>
+      </c>
+      <c r="B507">
+        <v>234.5</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
+      <c r="A508" s="2">
+        <v>272</v>
+      </c>
+      <c r="B508">
+        <v>234.73</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2">
+      <c r="A509" s="2">
+        <v>272.5</v>
+      </c>
+      <c r="B509">
+        <v>234.96</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2">
+      <c r="A510" s="2">
+        <v>273</v>
+      </c>
+      <c r="B510">
+        <v>235.19</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2">
+      <c r="A511" s="2">
+        <v>273.5</v>
+      </c>
+      <c r="B511">
+        <v>235.41</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2">
+      <c r="A512" s="2">
+        <v>274</v>
+      </c>
+      <c r="B512">
+        <v>235.64</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2">
+      <c r="A513" s="2">
+        <v>274.5</v>
+      </c>
+      <c r="B513">
+        <v>235.86</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2">
+      <c r="A514" s="2">
+        <v>275</v>
+      </c>
+      <c r="B514">
+        <v>236.08</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2">
+      <c r="A515" s="2">
+        <v>275.5</v>
+      </c>
+      <c r="B515">
+        <v>236.29</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2">
+      <c r="A516" s="2">
+        <v>276</v>
+      </c>
+      <c r="B516">
+        <v>236.5</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2">
+      <c r="A517" s="2">
+        <v>276.5</v>
+      </c>
+      <c r="B517">
+        <v>236.71</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2">
+      <c r="A518" s="2">
+        <v>277</v>
+      </c>
+      <c r="B518">
+        <v>236.92</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2">
+      <c r="A519" s="2">
+        <v>277.5</v>
+      </c>
+      <c r="B519">
+        <v>237.13</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2">
+      <c r="A520" s="2">
+        <v>278</v>
+      </c>
+      <c r="B520">
+        <v>237.33</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2">
+      <c r="A521" s="2">
+        <v>278.5</v>
+      </c>
+      <c r="B521">
+        <v>237.53</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2">
+      <c r="A522" s="2">
+        <v>279</v>
+      </c>
+      <c r="B522">
+        <v>237.73</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2">
+      <c r="A523" s="2">
+        <v>279.5</v>
+      </c>
+      <c r="B523">
+        <v>237.93</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2">
+      <c r="A524" s="2">
+        <v>280</v>
+      </c>
+      <c r="B524">
+        <v>238.12</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2">
+      <c r="A525" s="2">
+        <v>280.5</v>
+      </c>
+      <c r="B525">
+        <v>238.32</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2">
+      <c r="A526" s="2">
+        <v>281</v>
+      </c>
+      <c r="B526">
+        <v>238.51</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2">
+      <c r="A527" s="2">
+        <v>281.5</v>
+      </c>
+      <c r="B527">
+        <v>238.69</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2">
+      <c r="A528" s="2">
+        <v>282</v>
+      </c>
+      <c r="B528">
+        <v>238.88</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2">
+      <c r="A529" s="2">
+        <v>282.5</v>
+      </c>
+      <c r="B529">
+        <v>239.06</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2">
+      <c r="A530" s="2">
+        <v>283</v>
+      </c>
+      <c r="B530">
+        <v>239.24</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2">
+      <c r="A531" s="2">
+        <v>283.5</v>
+      </c>
+      <c r="B531">
+        <v>239.42</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2">
+      <c r="A532" s="2">
+        <v>284</v>
+      </c>
+      <c r="B532">
+        <v>239.6</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2">
+      <c r="A533" s="2">
+        <v>284.5</v>
+      </c>
+      <c r="B533">
+        <v>239.78</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2">
+      <c r="A534" s="2">
+        <v>285</v>
+      </c>
+      <c r="B534">
+        <v>239.95</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2">
+      <c r="A535" s="2">
+        <v>285.5</v>
+      </c>
+      <c r="B535">
+        <v>240.12</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2">
+      <c r="A536" s="2">
+        <v>286</v>
+      </c>
+      <c r="B536">
+        <v>240.29</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2">
+      <c r="A537" s="2">
+        <v>286.5</v>
+      </c>
+      <c r="B537">
+        <v>240.46</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2">
+      <c r="A538" s="2">
+        <v>287</v>
+      </c>
+      <c r="B538">
+        <v>240.62</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2">
+      <c r="A539" s="2">
+        <v>287.5</v>
+      </c>
+      <c r="B539">
+        <v>240.78</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2">
+      <c r="A540" s="2">
+        <v>288</v>
+      </c>
+      <c r="B540">
+        <v>240.94</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2">
+      <c r="A541" s="2">
+        <v>288.5</v>
+      </c>
+      <c r="B541">
+        <v>241.09</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2">
+      <c r="A542" s="2">
+        <v>289</v>
+      </c>
+      <c r="B542">
+        <v>241.23</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2">
+      <c r="A543" s="2">
+        <v>289.5</v>
+      </c>
+      <c r="B543">
+        <v>241.37</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2">
+      <c r="A544" s="2">
+        <v>290</v>
+      </c>
+      <c r="B544">
+        <v>241.5</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2">
+      <c r="A545" s="2">
+        <v>290.5</v>
+      </c>
+      <c r="B545">
+        <v>241.63</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2">
+      <c r="A546" s="2">
+        <v>291</v>
+      </c>
+      <c r="B546">
+        <v>241.75</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2">
+      <c r="A547" s="2">
+        <v>291.5</v>
+      </c>
+      <c r="B547">
+        <v>241.86</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2">
+      <c r="A548" s="2">
+        <v>292</v>
+      </c>
+      <c r="B548">
+        <v>241.96</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2">
+      <c r="A549" s="2">
+        <v>292.5</v>
+      </c>
+      <c r="B549">
+        <v>242.04</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2">
+      <c r="A550" s="2">
+        <v>293</v>
+      </c>
+      <c r="B550">
+        <v>242.12</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2">
+      <c r="A551" s="2">
+        <v>293.5</v>
+      </c>
+      <c r="B551">
+        <v>242.18</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2">
+      <c r="A552" s="2">
+        <v>294</v>
+      </c>
+      <c r="B552">
+        <v>242.23</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2">
+      <c r="A553" s="2">
+        <v>294.5</v>
+      </c>
+      <c r="B553">
+        <v>242.26</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2">
+      <c r="A554" s="2">
+        <v>295</v>
+      </c>
+      <c r="B554">
+        <v>242.28</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2">
+      <c r="A555" s="2">
+        <v>295.5</v>
+      </c>
+      <c r="B555">
+        <v>242.28</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="A556" s="2">
+        <v>296</v>
+      </c>
+      <c r="B556">
+        <v>242.27</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2">
+      <c r="A557" s="2">
+        <v>296.5</v>
+      </c>
+      <c r="B557">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2">
+      <c r="A558" s="2">
+        <v>297</v>
+      </c>
+      <c r="B558">
+        <v>242.2</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2">
+      <c r="A559" s="2">
+        <v>297.5</v>
+      </c>
+      <c r="B559">
+        <v>242.14</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2">
+      <c r="A560" s="2">
+        <v>298</v>
+      </c>
+      <c r="B560">
+        <v>242.07</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2">
+      <c r="A561" s="2">
+        <v>298.5</v>
+      </c>
+      <c r="B561">
+        <v>241.98</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2">
+      <c r="A562" s="2">
+        <v>299</v>
+      </c>
+      <c r="B562">
+        <v>241.89</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2">
+      <c r="A563" s="2">
+        <v>299.5</v>
+      </c>
+      <c r="B563">
+        <v>241.78</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2">
+      <c r="A564" s="2">
+        <v>300</v>
+      </c>
+      <c r="B564">
+        <v>241.66</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2">
+      <c r="A565" s="2">
+        <v>300.5</v>
+      </c>
+      <c r="B565">
+        <v>241.52</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2">
+      <c r="A566" s="2">
+        <v>301</v>
+      </c>
+      <c r="B566">
+        <v>241.37</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2">
+      <c r="A567" s="2">
+        <v>301.5</v>
+      </c>
+      <c r="B567">
+        <v>241.2</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2">
+      <c r="A568" s="2">
+        <v>302</v>
+      </c>
+      <c r="B568">
+        <v>241.01</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2">
+      <c r="A569" s="2">
+        <v>302.5</v>
+      </c>
+      <c r="B569">
+        <v>240.81</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2">
+      <c r="A570" s="2">
+        <v>303</v>
+      </c>
+      <c r="B570">
+        <v>240.59</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2">
+      <c r="A571" s="2">
+        <v>303.5</v>
+      </c>
+      <c r="B571">
+        <v>240.35</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2">
+      <c r="A572" s="2">
+        <v>304</v>
+      </c>
+      <c r="B572">
+        <v>240.1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2">
+      <c r="A573" s="2">
+        <v>304.5</v>
+      </c>
+      <c r="B573">
+        <v>239.82</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2">
+      <c r="A574" s="2">
+        <v>305</v>
+      </c>
+      <c r="B574">
+        <v>239.53</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2">
+      <c r="A575" s="2">
+        <v>305.5</v>
+      </c>
+      <c r="B575">
+        <v>239.22</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2">
+      <c r="A576" s="2">
+        <v>306</v>
+      </c>
+      <c r="B576">
+        <v>238.89</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2">
+      <c r="A577" s="2">
+        <v>306.5</v>
+      </c>
+      <c r="B577">
+        <v>238.54</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2">
+      <c r="A578" s="2">
+        <v>307</v>
+      </c>
+      <c r="B578">
+        <v>238.17</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2">
+      <c r="A579" s="2">
+        <v>307.5</v>
+      </c>
+      <c r="B579">
+        <v>237.78</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2">
+      <c r="A580" s="2">
+        <v>308</v>
+      </c>
+      <c r="B580">
+        <v>237.37</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2">
+      <c r="A581" s="2">
+        <v>308.5</v>
+      </c>
+      <c r="B581">
+        <v>236.95</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2">
+      <c r="A582" s="2">
+        <v>309</v>
+      </c>
+      <c r="B582">
+        <v>236.5</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2">
+      <c r="A583" s="2">
+        <v>309.5</v>
+      </c>
+      <c r="B583">
+        <v>236.04</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2">
+      <c r="A584" s="2">
+        <v>310</v>
+      </c>
+      <c r="B584">
+        <v>235.55</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2">
+      <c r="A585" s="2">
+        <v>310.5</v>
+      </c>
+      <c r="B585">
+        <v>235.05</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2">
+      <c r="A586" s="2">
+        <v>311</v>
+      </c>
+      <c r="B586">
+        <v>234.53</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2">
+      <c r="A587" s="2">
+        <v>311.5</v>
+      </c>
+      <c r="B587">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2">
+      <c r="A588" s="2">
+        <v>312</v>
+      </c>
+      <c r="B588">
+        <v>233.44</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2">
+      <c r="A589" s="2">
+        <v>312.5</v>
+      </c>
+      <c r="B589">
+        <v>232.87</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2">
+      <c r="A590" s="2">
+        <v>313</v>
+      </c>
+      <c r="B590">
+        <v>232.29</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2">
+      <c r="A591" s="2">
+        <v>313.5</v>
+      </c>
+      <c r="B591">
+        <v>231.69</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2">
+      <c r="A592" s="2">
+        <v>314</v>
+      </c>
+      <c r="B592">
+        <v>231.07</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2">
+      <c r="A593" s="2">
+        <v>314.5</v>
+      </c>
+      <c r="B593">
+        <v>230.45</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2">
+      <c r="A594" s="2">
+        <v>315</v>
+      </c>
+      <c r="B594">
+        <v>229.8</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2">
+      <c r="A595" s="2">
+        <v>315.5</v>
+      </c>
+      <c r="B595">
+        <v>229.15</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2">
+      <c r="A596" s="2">
+        <v>316</v>
+      </c>
+      <c r="B596">
+        <v>228.48</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2">
+      <c r="A597" s="2">
+        <v>316.5</v>
+      </c>
+      <c r="B597">
+        <v>227.8</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2">
+      <c r="A598" s="2">
+        <v>317</v>
+      </c>
+      <c r="B598">
+        <v>227.11</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2">
+      <c r="A599" s="2">
+        <v>317.5</v>
+      </c>
+      <c r="B599">
+        <v>226.41</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2">
+      <c r="A600" s="2">
+        <v>318</v>
+      </c>
+      <c r="B600">
+        <v>225.7</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2">
+      <c r="A601" s="2">
+        <v>318.5</v>
+      </c>
+      <c r="B601">
+        <v>224.98</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2">
+      <c r="A602" s="2">
+        <v>319</v>
+      </c>
+      <c r="B602">
+        <v>224.25</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2">
+      <c r="A603" s="2">
+        <v>319.5</v>
+      </c>
+      <c r="B603">
+        <v>223.51</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2">
+      <c r="A604" s="2">
+        <v>320</v>
+      </c>
+      <c r="B604">
+        <v>222.77</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2">
+      <c r="A605" s="2">
+        <v>320.5</v>
+      </c>
+      <c r="B605">
+        <v>222.01</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2">
+      <c r="A606" s="2">
+        <v>321</v>
+      </c>
+      <c r="B606">
+        <v>221.25</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2">
+      <c r="A607" s="2">
+        <v>321.5</v>
+      </c>
+      <c r="B607">
+        <v>220.48</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2">
+      <c r="A608" s="2">
+        <v>322</v>
+      </c>
+      <c r="B608">
+        <v>219.71</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2">
+      <c r="A609" s="2">
+        <v>322.5</v>
+      </c>
+      <c r="B609">
+        <v>218.93</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2">
+      <c r="A610" s="2">
+        <v>323</v>
+      </c>
+      <c r="B610">
+        <v>218.15</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2">
+      <c r="A611" s="2">
+        <v>323.5</v>
+      </c>
+      <c r="B611">
+        <v>217.36</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2">
+      <c r="A612" s="2">
+        <v>324</v>
+      </c>
+      <c r="B612">
+        <v>216.57</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2">
+      <c r="A613" s="2">
+        <v>324.5</v>
+      </c>
+      <c r="B613">
+        <v>215.77</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2">
+      <c r="A614" s="2">
+        <v>325</v>
+      </c>
+      <c r="B614">
+        <v>214.97</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2">
+      <c r="A615" s="2">
+        <v>325.5</v>
+      </c>
+      <c r="B615">
+        <v>214.16</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2">
+      <c r="A616" s="2">
+        <v>326</v>
+      </c>
+      <c r="B616">
+        <v>213.35</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2">
+      <c r="A617" s="2">
+        <v>326.5</v>
+      </c>
+      <c r="B617">
+        <v>212.54</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2">
+      <c r="A618" s="2">
+        <v>327</v>
+      </c>
+      <c r="B618">
+        <v>211.73</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2">
+      <c r="A619" s="2">
+        <v>327.5</v>
+      </c>
+      <c r="B619">
+        <v>210.91</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2">
+      <c r="A620" s="2">
+        <v>328</v>
+      </c>
+      <c r="B620">
+        <v>210.1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2">
+      <c r="A621" s="2">
+        <v>328.5</v>
+      </c>
+      <c r="B621">
+        <v>209.28</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2">
+      <c r="A622" s="2">
+        <v>329</v>
+      </c>
+      <c r="B622">
+        <v>208.46</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2">
+      <c r="A623" s="2">
+        <v>329.5</v>
+      </c>
+      <c r="B623">
+        <v>207.64</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2">
+      <c r="A624" s="2">
+        <v>330</v>
+      </c>
+      <c r="B624">
+        <v>206.82</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2">
+      <c r="A625" s="2">
+        <v>330.5</v>
+      </c>
+      <c r="B625">
+        <v>205.99</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2">
+      <c r="A626" s="2">
+        <v>331</v>
+      </c>
+      <c r="B626">
+        <v>205.17</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2">
+      <c r="A627" s="2">
+        <v>331.5</v>
+      </c>
+      <c r="B627">
+        <v>204.35</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2">
+      <c r="A628" s="2">
+        <v>332</v>
+      </c>
+      <c r="B628">
+        <v>203.52</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2">
+      <c r="A629" s="2">
+        <v>332.5</v>
+      </c>
+      <c r="B629">
+        <v>202.7</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2">
+      <c r="A630" s="2">
+        <v>333</v>
+      </c>
+      <c r="B630">
+        <v>201.88</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2">
+      <c r="A631" s="2">
+        <v>333.5</v>
+      </c>
+      <c r="B631">
+        <v>201.06</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2">
+      <c r="A632" s="2">
+        <v>334</v>
+      </c>
+      <c r="B632">
+        <v>200.23</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2">
+      <c r="A633" s="2">
+        <v>334.5</v>
+      </c>
+      <c r="B633">
+        <v>199.41</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2">
+      <c r="A634" s="2">
+        <v>335</v>
+      </c>
+      <c r="B634">
+        <v>198.59</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2">
+      <c r="A635" s="2">
+        <v>335.5</v>
+      </c>
+      <c r="B635">
+        <v>197.78</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2">
+      <c r="A636" s="2">
+        <v>336</v>
+      </c>
+      <c r="B636">
+        <v>196.96</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2">
+      <c r="A637" s="2">
+        <v>336.5</v>
+      </c>
+      <c r="B637">
+        <v>196.14</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2">
+      <c r="A638" s="2">
+        <v>337</v>
+      </c>
+      <c r="B638">
+        <v>195.33</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2">
+      <c r="A639" s="2">
+        <v>337.5</v>
+      </c>
+      <c r="B639">
+        <v>194.51</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2">
+      <c r="A640" s="2">
+        <v>338</v>
+      </c>
+      <c r="B640">
+        <v>193.7</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2">
+      <c r="A641" s="2">
+        <v>338.5</v>
+      </c>
+      <c r="B641">
+        <v>192.89</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2">
+      <c r="A642" s="2">
+        <v>339</v>
+      </c>
+      <c r="B642">
+        <v>192.08</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2">
+      <c r="A643" s="2">
+        <v>339.5</v>
+      </c>
+      <c r="B643">
+        <v>191.28</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2">
+      <c r="A644" s="2">
+        <v>340</v>
+      </c>
+      <c r="B644">
+        <v>190.48</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2">
+      <c r="A645" s="2">
+        <v>340.5</v>
+      </c>
+      <c r="B645">
+        <v>189.67</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2">
+      <c r="A646" s="2">
+        <v>341</v>
+      </c>
+      <c r="B646">
+        <v>188.87</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2">
+      <c r="A647" s="2">
+        <v>341.5</v>
+      </c>
+      <c r="B647">
+        <v>188.08</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2">
+      <c r="A648" s="2">
+        <v>342</v>
+      </c>
+      <c r="B648">
+        <v>187.28</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2">
+      <c r="A649" s="2">
+        <v>342.5</v>
+      </c>
+      <c r="B649">
+        <v>186.49</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2">
+      <c r="A650" s="2">
+        <v>343</v>
+      </c>
+      <c r="B650">
+        <v>185.7</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2">
+      <c r="A651" s="2">
+        <v>343.5</v>
+      </c>
+      <c r="B651">
+        <v>184.91</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2">
+      <c r="A652" s="2">
+        <v>344</v>
+      </c>
+      <c r="B652">
+        <v>184.13</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2">
+      <c r="A653" s="2">
+        <v>344.5</v>
+      </c>
+      <c r="B653">
+        <v>183.35</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2">
+      <c r="A654" s="2">
+        <v>345</v>
+      </c>
+      <c r="B654">
+        <v>182.57</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2">
+      <c r="A655" s="2">
+        <v>345.5</v>
+      </c>
+      <c r="B655">
+        <v>181.79</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2">
+      <c r="A656" s="2">
+        <v>346</v>
+      </c>
+      <c r="B656">
+        <v>181.02</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2">
+      <c r="A657" s="2">
+        <v>346.5</v>
+      </c>
+      <c r="B657">
+        <v>180.24</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2">
+      <c r="A658" s="2">
+        <v>347</v>
+      </c>
+      <c r="B658">
+        <v>179.48</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2">
+      <c r="A659" s="2">
+        <v>347.5</v>
+      </c>
+      <c r="B659">
+        <v>178.71</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2">
+      <c r="A660" s="2">
+        <v>348</v>
+      </c>
+      <c r="B660">
+        <v>177.95</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2">
+      <c r="A661" s="2">
+        <v>348.5</v>
+      </c>
+      <c r="B661">
+        <v>177.19</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2">
+      <c r="A662" s="2">
+        <v>349</v>
+      </c>
+      <c r="B662">
+        <v>176.43</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2">
+      <c r="A663" s="2">
+        <v>349.5</v>
+      </c>
+      <c r="B663">
+        <v>175.68</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2">
+      <c r="A664" s="2">
+        <v>350</v>
+      </c>
+      <c r="B664">
+        <v>174.93</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2">
+      <c r="A665" s="2">
+        <v>350.5</v>
+      </c>
+      <c r="B665">
+        <v>174.18</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2">
+      <c r="A666" s="2">
+        <v>351</v>
+      </c>
+      <c r="B666">
+        <v>173.43</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2">
+      <c r="A667" s="2">
+        <v>351.5</v>
+      </c>
+      <c r="B667">
+        <v>172.69</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2">
+      <c r="A668" s="2">
+        <v>352</v>
+      </c>
+      <c r="B668">
+        <v>171.96</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2">
+      <c r="A669" s="2">
+        <v>352.5</v>
+      </c>
+      <c r="B669">
+        <v>171.22</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2">
+      <c r="A670" s="2">
+        <v>353</v>
+      </c>
+      <c r="B670">
+        <v>170.49</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2">
+      <c r="A671" s="2">
+        <v>353.5</v>
+      </c>
+      <c r="B671">
+        <v>169.76</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2">
+      <c r="A672" s="2">
+        <v>354</v>
+      </c>
+      <c r="B672">
+        <v>169.03</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2">
+      <c r="A673" s="2">
+        <v>354.5</v>
+      </c>
+      <c r="B673">
+        <v>168.31</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2">
+      <c r="A674" s="2">
+        <v>355</v>
+      </c>
+      <c r="B674">
+        <v>167.59</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2">
+      <c r="A675" s="2">
+        <v>355.5</v>
+      </c>
+      <c r="B675">
+        <v>166.87</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2">
+      <c r="A676" s="2">
+        <v>356</v>
+      </c>
+      <c r="B676">
+        <v>166.16</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2">
+      <c r="A677" s="2">
+        <v>356.5</v>
+      </c>
+      <c r="B677">
+        <v>165.45</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2">
+      <c r="A678" s="2">
+        <v>357</v>
+      </c>
+      <c r="B678">
+        <v>164.74</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2">
+      <c r="A679" s="2">
+        <v>357.5</v>
+      </c>
+      <c r="B679">
+        <v>164.04</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2">
+      <c r="A680" s="2">
+        <v>358</v>
+      </c>
+      <c r="B680">
+        <v>163.34</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2">
+      <c r="A681" s="2">
+        <v>358.5</v>
+      </c>
+      <c r="B681">
+        <v>162.63999999999999</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2">
+      <c r="A682" s="2">
+        <v>359</v>
+      </c>
+      <c r="B682">
+        <v>161.94999999999999</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2">
+      <c r="A683" s="2">
+        <v>359.5</v>
+      </c>
+      <c r="B683">
+        <v>161.26</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2">
+      <c r="A684" s="2">
+        <v>360</v>
+      </c>
+      <c r="B684">
+        <v>160.57</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2">
+      <c r="A685" s="2">
+        <v>360.5</v>
+      </c>
+      <c r="B685">
+        <v>159.88999999999999</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2">
+      <c r="A686" s="2">
+        <v>361</v>
+      </c>
+      <c r="B686">
+        <v>159.19999999999999</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2">
+      <c r="A687" s="2">
+        <v>361.5</v>
+      </c>
+      <c r="B687">
+        <v>158.53</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2">
+      <c r="A688" s="2">
+        <v>362</v>
+      </c>
+      <c r="B688">
+        <v>157.85</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2">
+      <c r="A689" s="2">
+        <v>362.5</v>
+      </c>
+      <c r="B689">
+        <v>157.18</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2">
+      <c r="A690" s="2">
+        <v>363</v>
+      </c>
+      <c r="B690">
+        <v>156.51</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2">
+      <c r="A691" s="2">
+        <v>363.5</v>
+      </c>
+      <c r="B691">
+        <v>155.84</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2">
+      <c r="A692" s="2">
+        <v>364</v>
+      </c>
+      <c r="B692">
+        <v>155.18</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2">
+      <c r="A693" s="2">
+        <v>364.5</v>
+      </c>
+      <c r="B693">
+        <v>154.52000000000001</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2">
+      <c r="A694" s="2">
+        <v>365</v>
+      </c>
+      <c r="B694">
+        <v>153.87</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2">
+      <c r="A695" s="2">
+        <v>365.5</v>
+      </c>
+      <c r="B695">
+        <v>153.21</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2">
+      <c r="A696" s="2">
+        <v>366</v>
+      </c>
+      <c r="B696">
+        <v>152.56</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2">
+      <c r="A697" s="2">
+        <v>366.5</v>
+      </c>
+      <c r="B697">
+        <v>151.91999999999999</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2">
+      <c r="A698" s="2">
+        <v>367</v>
+      </c>
+      <c r="B698">
+        <v>151.27000000000001</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2">
+      <c r="A699" s="2">
+        <v>367.5</v>
+      </c>
+      <c r="B699">
+        <v>150.63</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2">
+      <c r="A700" s="2">
+        <v>368</v>
+      </c>
+      <c r="B700">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2">
+      <c r="A701" s="2">
+        <v>368.5</v>
+      </c>
+      <c r="B701">
+        <v>149.36000000000001</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2">
+      <c r="A702" s="2">
+        <v>369</v>
+      </c>
+      <c r="B702">
+        <v>148.72999999999999</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2">
+      <c r="A703" s="2">
+        <v>369.5</v>
+      </c>
+      <c r="B703">
+        <v>148.1</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2">
+      <c r="A704" s="2">
+        <v>370</v>
+      </c>
+      <c r="B704">
+        <v>147.47999999999999</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2">
+      <c r="A705" s="2">
+        <v>370.5</v>
+      </c>
+      <c r="B705">
+        <v>146.86000000000001</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2">
+      <c r="A706" s="2">
+        <v>371</v>
+      </c>
+      <c r="B706">
+        <v>146.24</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2">
+      <c r="A707" s="2">
+        <v>371.5</v>
+      </c>
+      <c r="B707">
+        <v>145.62</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2">
+      <c r="A708" s="2">
+        <v>372</v>
+      </c>
+      <c r="B708">
+        <v>145.01</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2">
+      <c r="A709" s="2">
+        <v>372.5</v>
+      </c>
+      <c r="B709">
+        <v>144.4</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2">
+      <c r="A710" s="2">
+        <v>373</v>
+      </c>
+      <c r="B710">
+        <v>143.79</v>
       </c>
     </row>
   </sheetData>
